--- a/public/excel/template/template-data-kpm.xlsx
+++ b/public/excel/template/template-data-kpm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\datapkh\public\excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\datapkhmix\public\excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA978E53-A563-487F-A009-CA05413DDB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57689700-A5E5-4D80-B3D6-3DF88BEA11CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFC7DAC0-6F0E-4E17-8C0D-0696D3603E7F}"/>
   </bookViews>
@@ -31,29 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nik</t>
   </si>
   <si>
-    <t>nama_penerima</t>
-  </si>
-  <si>
     <t>kecamatan</t>
   </si>
   <si>
-    <t>desa_kelurahan</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
-    <t>nmpendamping_lama</t>
-  </si>
-  <si>
-    <t>nmpendamping_baru</t>
-  </si>
-  <si>
     <t>dusun</t>
   </si>
   <si>
@@ -64,6 +52,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>desa</t>
+  </si>
+  <si>
+    <t>nik pendamping</t>
   </si>
 </sst>
 </file>
@@ -431,50 +428,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F524B94B-67D6-4E73-835A-5F75E16EF1B4}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -485,9 +482,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -498,9 +494,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -511,9 +506,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -524,9 +518,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -537,9 +530,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -550,9 +542,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -563,9 +554,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -576,9 +566,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -589,9 +578,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -602,9 +590,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -615,9 +602,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -628,9 +614,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -641,9 +626,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -654,9 +638,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -667,9 +650,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -680,9 +662,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -693,9 +674,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>